--- a/Attendance Roster_ Splunk Intermediate_ 17-19 September_VC00528608.xlsx
+++ b/Attendance Roster_ Splunk Intermediate_ 17-19 September_VC00528608.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_CISCO_17_09_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DF7037-E545-42F3-99DC-DDD6A5949CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD588979-32AB-4D19-BC44-16CD2780C66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2C58F5E4-A6AD-4A27-BF24-3B5607617CEA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C58F5E4-A6AD-4A27-BF24-3B5607617CEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>Start Date</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>https://cloud.cdp.rpsconsulting.in/console/#/</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -658,19 +661,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1012,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52308B8D-6B92-4DF2-8C86-D5BF0484EEA9}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1026,10 +1028,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1116,7 +1118,9 @@
       <c r="B12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
     </row>
@@ -1127,7 +1131,9 @@
       <c r="B13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
@@ -1160,7 +1166,9 @@
       <c r="B16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
@@ -1171,7 +1179,9 @@
       <c r="B17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
@@ -1182,7 +1192,9 @@
       <c r="B18" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
@@ -1215,7 +1227,9 @@
       <c r="B21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
     </row>
@@ -1226,7 +1240,9 @@
       <c r="B22" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
     </row>
@@ -1237,7 +1253,9 @@
       <c r="B23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1274,7 +1292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE0AD41-A3D2-4626-A237-180C0102D3FF}">
   <dimension ref="A3:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1285,168 +1303,168 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33" t="s">
+      <c r="E16" s="30"/>
+      <c r="F16" s="30" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1472,6 +1490,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002F62A4C73C4C5C4E8409E497AF06880C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe14a8e5618508262d37fc5248f44f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="896e83be-f5d4-4aaf-ba08-ebdbc21b42c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a002cf4bf3452271b70e52ce96da516c" ns3:_="">
     <xsd:import namespace="896e83be-f5d4-4aaf-ba08-ebdbc21b42c0"/>
@@ -1647,12 +1671,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50E813A3-779F-4E20-9139-8379BCD9805E}">
   <ds:schemaRefs>
@@ -1662,6 +1680,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513C58E5-EDCB-4134-BBB7-1C9368429499}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="896e83be-f5d4-4aaf-ba08-ebdbc21b42c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D817F241-6D3A-4C0E-97DE-4F34DD07154D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1677,20 +1711,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513C58E5-EDCB-4134-BBB7-1C9368429499}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="896e83be-f5d4-4aaf-ba08-ebdbc21b42c0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Attendance Roster_ Splunk Intermediate_ 17-19 September_VC00528608.xlsx
+++ b/Attendance Roster_ Splunk Intermediate_ 17-19 September_VC00528608.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_CISCO_17_09_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD588979-32AB-4D19-BC44-16CD2780C66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9421BD-999A-4789-BFA2-414EBE5A7678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C58F5E4-A6AD-4A27-BF24-3B5607617CEA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>Start Date</t>
   </si>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1134,9 @@
       <c r="C13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1182,7 +1184,9 @@
       <c r="C17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1195,7 +1199,9 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1206,7 +1212,9 @@
         <v>25</v>
       </c>
       <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1230,7 +1238,9 @@
       <c r="C21" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1243,7 +1253,9 @@
       <c r="C22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1256,7 +1268,9 @@
       <c r="C23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="20" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="22"/>
@@ -1490,12 +1504,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002F62A4C73C4C5C4E8409E497AF06880C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe14a8e5618508262d37fc5248f44f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="896e83be-f5d4-4aaf-ba08-ebdbc21b42c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a002cf4bf3452271b70e52ce96da516c" ns3:_="">
     <xsd:import namespace="896e83be-f5d4-4aaf-ba08-ebdbc21b42c0"/>
@@ -1671,6 +1679,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50E813A3-779F-4E20-9139-8379BCD9805E}">
   <ds:schemaRefs>
@@ -1680,22 +1694,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513C58E5-EDCB-4134-BBB7-1C9368429499}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="896e83be-f5d4-4aaf-ba08-ebdbc21b42c0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D817F241-6D3A-4C0E-97DE-4F34DD07154D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1711,4 +1709,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513C58E5-EDCB-4134-BBB7-1C9368429499}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="896e83be-f5d4-4aaf-ba08-ebdbc21b42c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Attendance Roster_ Splunk Intermediate_ 17-19 September_VC00528608.xlsx
+++ b/Attendance Roster_ Splunk Intermediate_ 17-19 September_VC00528608.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\SPLK_CISCO_17_09_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9421BD-999A-4789-BFA2-414EBE5A7678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B27300-8F2B-4459-B542-B3DC091DB737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C58F5E4-A6AD-4A27-BF24-3B5607617CEA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>Start Date</t>
   </si>
@@ -254,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -426,152 +426,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -581,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -622,50 +483,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,6 +498,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1015,7 +840,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1028,10 +853,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="33"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1094,7 +919,7 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
@@ -1111,171 +936,190 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+      <c r="C13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25" t="s">
+      <c r="C16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25" t="s">
+      <c r="C17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="25" t="s">
+      <c r="C18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25" t="s">
+      <c r="C21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="24"/>
+      <c r="C22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
+      <c r="C23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1317,168 +1161,168 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1504,6 +1348,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002F62A4C73C4C5C4E8409E497AF06880C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe14a8e5618508262d37fc5248f44f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="896e83be-f5d4-4aaf-ba08-ebdbc21b42c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a002cf4bf3452271b70e52ce96da516c" ns3:_="">
     <xsd:import namespace="896e83be-f5d4-4aaf-ba08-ebdbc21b42c0"/>
@@ -1679,12 +1529,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50E813A3-779F-4E20-9139-8379BCD9805E}">
   <ds:schemaRefs>
@@ -1694,6 +1538,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513C58E5-EDCB-4134-BBB7-1C9368429499}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="896e83be-f5d4-4aaf-ba08-ebdbc21b42c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D817F241-6D3A-4C0E-97DE-4F34DD07154D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1709,20 +1569,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513C58E5-EDCB-4134-BBB7-1C9368429499}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="896e83be-f5d4-4aaf-ba08-ebdbc21b42c0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>